--- a/biology/Médecine/Séroprévalence/Séroprévalence.xlsx
+++ b/biology/Médecine/Séroprévalence/Séroprévalence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9ropr%C3%A9valence</t>
+          <t>Séroprévalence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La séroprévalence ou séroépidémiologie évalue le nombre de personnes, dans une population donnée, ayant été exposées à un microorganisme, ou à un vaccin, et qui développent des anticorps spécifiques à des taux significatifs (pour le diagnostic – personnes séropositives –, ou pour la prévention – personnes protégées ou immunisées –-).
-Les techniques de détection d'anticorps sont les tests sérologiques, pratiqués alors sur l'ensemble d'une population ou sur un échantillon représentatif de celle-ci[1]. La séroprévalence est souvent présentée sous forme de pourcentage ou encore de cas ramenés à une population de 100 000 individus.
+Les techniques de détection d'anticorps sont les tests sérologiques, pratiqués alors sur l'ensemble d'une population ou sur un échantillon représentatif de celle-ci. La séroprévalence est souvent présentée sous forme de pourcentage ou encore de cas ramenés à une population de 100 000 individus.
 </t>
         </is>
       </c>
